--- a/day07/data/다나와_무선청소기_결과.xlsx
+++ b/day07/data/다나와_무선청소기_결과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,219 +434,189 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>제품명</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>제품명</t>
+          <t>제품스펙</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>제품스펙</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>최저가</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LG전자 오브제컬렉션 코드제로 A9S AX9884</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LG전자 오브제컬렉션 코드제로 A9S AX9884</t>
+          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 흡입력: 250W / 소비전력: 620W / 2023년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / UVC LED / 액서서리수납 / 스탠드거치 / 먼지비움시간: 30초 / 브러쉬: 와이드바닥 / 물걸레: 스팀, 고온, 일반 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 30분(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 대화형알림창 / 워셔블헤파필터 / 5단계여과 / 색상: 카밍베이지 / 무게: 2.47kg / 크기(가로x세로x깊이): 300x1120x245mm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 흡입력: 250W / 소비전력: 620W / 2023년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / UVC LED / 액서서리수납 / 스탠드거치 / 먼지비움시간: 30초 / 브러쉬: 와이드바닥 / 물걸레: 스팀, 고온, 일반 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 30분(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 대화형알림창 / 워셔블헤파필터 / 5단계여과 / 색상: 카밍베이지 / 무게: 2.47kg / 크기(가로x세로x깊이): 300x1120x245mm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>873728</t>
+          <t>890370</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>신일전자 SVC-S380IM</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>에어메이드 스마트포스 AMC-3500</t>
+          <t>핸디스틱청소기 / 무선 / 흡입력: 380W / 2024년형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 2500mAh / [청소] 싸이클론흡입 / LED라이트 / UV살균 / BLDC모터 / [부가] 디스플레이표시 / 배터리잔량표시 / 워셔블헤파필터 / 색상: 블랙 / 무게: 1.45kg / 거치대 크기(가로x세로x깊이): 250x1130x270mm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 370W / 2022년형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 45분(최대) / 충전시간: 5시간 / 분리형(1개) / 리튬이온 / 2500mAh / [청소] LED라이트 / UV살균 / [부가] 디스플레이표시 / 헤파필터 / 5단계여과 / 무게: 2.5kg / 크기(가로x세로x깊이): 255x1230x215mm</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>197000</t>
+          <t>249000</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>쿠쿠전자 인스퓨어 파워클론 CVC-AME1410UG</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>샤오미 미홀 K11</t>
+          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 140AW / 흡입력: 23000Pa / 소비전력: 420W / 2023년형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 물걸레: 일반 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 35분(최대) / 분리형(1개) / 리튬이온 / 2200mAh / 25.2V / [청소] 싸이클론흡입 / 먼지감지센서 / BLDC모터 / [부가] 배터리잔량표시 / 헤파필터 / 5단계여과 / 색상: 어반그레이 / 무게: 3.1kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 스탠드거치 / 2500mAh / 물통: 0.8L / 배터리잔량표시 / 오토클리닝 / 무게: 4.8kg / 크기(가로x세로x깊이): 286x1100x256mm</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>117120</t>
+          <t>371770</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>마끼다 DCL182ZW</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>쿠쿠전자 파워클론 CVC-AE1410</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 5400Pa / [배터리] 사용시간: 40분(최대) / 충전시간: 22분 / 분리형(1개) / 리튬이온 / 18V / [청소] 먼지통: 0.5L / [부가] 배터리잔량표시 / 먼지필터 / 색상: 화이트 / 무게: 1.3kg / 스위블헤드 / 크기(가로x세로x깊이): 151x1004x151mm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 소비전력: 420W / 2022년형 / [구성] 스탠드거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 35분(최대) / 분리형(1개) / [청소] 먼지감지센서 / BLDC모터 / [부가] 디스플레이표시 / 헤파필터 / 5단계여과 / 색상: 노블화이트 / 무게: 3.1kg / 크기(가로x세로x깊이): 240x1168x260mm</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>341760</t>
+          <t>74310</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>도어스코리아 홈리아 HA-17BL</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>비쎌(BISSELL) 크로스웨이브 3.0 맥스 2765S</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 90W / 흡입력: 17000Pa / 2023년형 / [구성] 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 충전시간: 3시간 / [청소] BLDC모터 / 먼지통: 200mL / [부가] 헤파필터 / 무게: 540g / 크기(가로x세로x깊이): 230x1080x65mm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(동시) / 소비전력: 150W / 2021년형 / 스탠드거치 / 사용시간: 30분(최대) / 충전시간: 4시간 / 리튬이온 / 물통: 0.83L / 배터리잔량표시 / 오토클리닝 / 색상: 화이트+블루 / 무게: 5.2kg / 크기(가로x세로x깊이): 260x1156x250mm</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>752210</t>
+          <t>69900</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>다이슨 V8 카본파이버</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>다이슨 V11 컴플리트 플러스</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 155W / 소비전력: 485W / [구성] 벽걸이거치 / 브러쉬: 바닥 / 침구 / 솔형 / 틈새 / 카펫 / 미니바닥 / 연장관 / 각도조절툴 / [배터리] 사용시간: 40분(최대) / 충전시간: 5시간 / 리튬이온 / 싸이클론흡입 / [부가] 먼지필터 / 무게: 2.63kg / 크기(가로x세로x깊이): 250x1244x210mm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 185AW / 소비전력: 545W / [구성] 스탠드거치 / 브러쉬: 바닥, 바닥+카펫 / 침구 / 솔형 / 틈새 / 미니바닥 / 연장관 / 각도조절툴 / [배터리] 사용시간: 1시간(최대) / 충전시간: 4시간30분 / 분리형(1개) / 리튬이온 / [청소] 싸이클론흡입 / 먼지통: 0.54L / [부가] 디스플레이표시 / 헤파필터 / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1394070</t>
+          <t>703820</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>벤하임코리아 V20 BCVM-115WH</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>블랙파인 YTE-S7</t>
+          <t>핸디스틱청소기 / 무선 / 물걸레+진공 / 2024년형 / [구성] 물걸레: 일반 / [배터리] 사용시간: 25분(최대) / 충전시간: 5시간 / 2200mAh / [청소] LED라이트 / 물통: 0.3L / [부가] 셀프스탠딩 / 색상: 화이트 / 무게: 1.7kg / 크기(가로x세로x깊이): 250x1140x100mm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / [구성] 브러쉬: 바닥 / 솔형 / 틈새 / [배터리] 사용시간: 35분(최대) / 충전시간: 5시간 / 2120mAh / [부가] 헤파필터 / 색상: 블랙 / 무게: 2.98kg</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>530300</t>
+          <t>59900</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>킴스아이엔씨 바스웰 KSC-5000</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>벤하임코리아 퓨리타 심플 플러스 BVC-160RS</t>
+          <t>욕실청소기 / 무선 / 전동회전 / 회전속도: 170RPM / [구성] 솔형 / 연장관 / [배터리] 사용시간: 2시간(최대) / 충전시간: 2시간30분 / 리튬이온 / 2000mAh / 10.8V / [부가] 프리볼트 / 생활방수 / 먼지필터 / 색상: 화이트 / 무게: 0.73kg / 크기(가로x세로x깊이): 108x350x108mm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 12000Pa / 소비전력: 160W / 2019년형 / [구성] 벽걸이거치 / 브러쉬: 바닥 / 틈새 / 연장관 / [배터리] 사용시간: 30분(최대) / 충전시간: 5시간 / 분리형(1개) / 리튬이온 / 2200mAh / 22.2V / [청소] 싸이클론흡입 / LED라이트 / 먼지통: 0.6L / [부가] 배터리잔량표시 / 셀프스탠딩 / 워셔블먼지필터 / 4단계여과 / 무게: 2.6kg</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>373030</t>
+          <t>74790</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LG전자 오브제컬렉션 코드제로 A9S AX9884WE + HW500DAS</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>파나소닉 MC-SD787</t>
+          <t>핸디스틱청소기+가습기세트 / 무선 / 흡입+물걸레(동시) / 흡입력: 250W / 소비전력: 620W / 2023년형 / [구성] 거치대: 올인원타워 / 먼지비움 / 충전 / UVC LED / 액서서리수납 / 스탠드거치 / 먼지비움시간: 30초 / 브러쉬: 와이드바닥 / 물걸레: 스팀, 고온, 일반 / 솔형 / 틈새 / 먼지봉투: 2.5L / [배터리] 사용시간: 30분(최대) / 충전시간: 4시간 / 분리형(2개) / 리튬이온 / 25.2V / [청소] 싸이클론흡입 / LED라이트 / 자동물공급 / 스마트인버터모터 / [부가] 스마트폰제어 / 대화형알림창 / 워셔블헤파필터 / 5단계여과 / 색상: 카밍베이지 / 무게: 2.47kg / 크기(가로x세로x깊이): 300x1120x245mm / ※ 상품 옵션 확인 후 구매</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입+물걸레(교체) / 흡입력: 22350Pa / 소비전력: 320W / 2020년형 / [구성] 충전 / 스탠드거치 / 브러쉬: 바닥 / 물걸레: 일반 / 침구 / 솔형 / 틈새 / 연장관 / [배터리] 사용시간: 40분(최대) / 리튬이온 / 2200mAh / 21.6V / [청소] 먼지감지센서 / BLDC모터 / 먼지통: 0.3L / [부가] 워셔블먼지필터 / 5단계여과 / 색상: 블랙 / 무게: 1.15kg</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>527000</t>
+          <t>1266300</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>로이드미 F8 프로</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>샤오미 SHUNZAO Z11 맥스</t>
+          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 135W / 흡입력: 23500Pa / 소비전력: 435W / [배터리] 사용시간: 1시간(최대) / 충전시간: 2시간30분 / 2500mAh / 29.6V / DC모터 / 먼지통: 0.4L / [부가] 먼지필터 / 4단계여과 / 색상: 화이트 / 무게: 2.6kg / 크기(가로x세로x깊이): 256x1178x157mm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>핸디스틱청소기 / 무선 / 흡입형 / 흡입력: 150AW / 흡입력: 26000PaPa / [구성] 벽걸이거치 / 브러쉬: 바닥 / 물걸레: 별매 / 침구 / 솔형 / 틈새 / [배터리] 사용시간: 1시간(최대) / 충전시간: 3시간 / 분리형(1개) / [청소] BLDC모터 / 먼지통: 0.5L / [부가] 디스플레이표시 / 헤파필터 / 5단계여과</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>286610</t>
+          <t>793400</t>
         </is>
       </c>
     </row>
